--- a/biology/Zoologie/Cercopithecus_pogonias/Cercopithecus_pogonias.xlsx
+++ b/biology/Zoologie/Cercopithecus_pogonias/Cercopithecus_pogonias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cercopithèque pogonias (Cercopithecus pogonias) est une espèce de singes de la famille des cercopithécidés. C'est un cercopithèque arboricole qui vit dans l'ouest de l'Afrique centrale.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS:
 sous-espèce Cercopithecus pogonias grayi Fraser, 1850
 sous-espèce Cercopithecus pogonias nigripes du Chaillu, 1860
 sous-espèce Cercopithecus pogonias pogonias Bennett, 1833
-Selon la troisième édition de Mammal Species of the World de 2005[2]:
+Selon la troisième édition de Mammal Species of the World de 2005:
 sous-espèce Cercopithecus pogonias grayi
 sous-espèce Cercopithecus pogonias nigripes
 sous-espèce Cercopithecus pogonias pogonias
